--- a/1des/autoavaliacao.xlsx
+++ b/1des/autoavaliacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34522DEC-5CB7-49E2-AD65-A64DBEFFB37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DB1AAA-8A1E-4ACC-ADE8-F495AD5DFB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C5EEDF07-EBC8-412C-AADD-B34EA720C566}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5EEDF07-EBC8-412C-AADD-B34EA720C566}"/>
   </bookViews>
   <sheets>
     <sheet name="FPOO" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1368,6 +1376,42 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -1377,6 +1421,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -1386,110 +1463,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1570,7 +1578,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1858,7 +1866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1868,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B117EA-179B-4DCE-9659-B32E1C1DF194}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,127 +1893,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="68" t="s">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="58" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="43" t="s">
+      <c r="Z1" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AA1" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AB1" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AC1" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" s="43" t="s">
+      <c r="AD1" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AE1" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="43" t="s">
+      <c r="AG1" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="43" t="s">
+      <c r="AH1" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="AI1" s="43" t="s">
+      <c r="AI1" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="AJ1" s="43" t="s">
+      <c r="AJ1" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="AK1" s="43" t="s">
+      <c r="AK1" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="AL1" s="43" t="s">
+      <c r="AL1" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AM1" s="43" t="s">
+      <c r="AM1" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="AN1" s="43" t="s">
+      <c r="AN1" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="AO1" s="46" t="s">
+      <c r="AO1" s="69" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -2014,45 +2022,45 @@
       <c r="F2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="47"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="70"/>
     </row>
     <row r="3" spans="1:45" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="5">
         <v>0</v>
       </c>
@@ -2065,55 +2073,55 @@
       <c r="F3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="48"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="71"/>
     </row>
     <row r="4" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -2151,16 +2159,16 @@
       <c r="AO4" s="8"/>
     </row>
     <row r="5" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2198,16 +2206,16 @@
       <c r="AO5" s="8"/>
     </row>
     <row r="6" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -2245,16 +2253,16 @@
       <c r="AO6" s="8"/>
     </row>
     <row r="7" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2292,16 +2300,16 @@
       <c r="AO7" s="8"/>
     </row>
     <row r="8" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2339,16 +2347,16 @@
       <c r="AO8" s="8"/>
     </row>
     <row r="9" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2386,16 +2394,16 @@
       <c r="AO9" s="8"/>
     </row>
     <row r="10" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2433,16 +2441,16 @@
       <c r="AO10" s="8"/>
     </row>
     <row r="11" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2480,16 +2488,16 @@
       <c r="AO11" s="8"/>
     </row>
     <row r="12" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -2527,16 +2535,16 @@
       <c r="AO12" s="8"/>
     </row>
     <row r="13" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -2574,16 +2582,16 @@
       <c r="AO13" s="8"/>
     </row>
     <row r="14" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -2621,16 +2629,16 @@
       <c r="AO14" s="8"/>
     </row>
     <row r="15" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -2669,16 +2677,16 @@
       <c r="AS15" s="12"/>
     </row>
     <row r="16" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -2716,18 +2724,18 @@
       <c r="AO16" s="8"/>
     </row>
     <row r="17" spans="1:41" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="67" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -2765,16 +2773,16 @@
       <c r="AO17" s="8"/>
     </row>
     <row r="18" spans="1:41" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -2812,16 +2820,16 @@
       <c r="AO18" s="8"/>
     </row>
     <row r="19" spans="1:41" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -2859,16 +2867,16 @@
       <c r="AO19" s="8"/>
     </row>
     <row r="20" spans="1:41" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -2906,16 +2914,16 @@
       <c r="AO20" s="8"/>
     </row>
     <row r="21" spans="1:41" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2953,16 +2961,16 @@
       <c r="AO21" s="8"/>
     </row>
     <row r="22" spans="1:41" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -3000,14 +3008,14 @@
       <c r="AO22" s="8"/>
     </row>
     <row r="23" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="11">
         <f>IF(18-SUM(G4:G22)&lt;=1,1,18-SUM(G4:G22))</f>
         <v>18</v>
@@ -3150,14 +3158,14 @@
       </c>
     </row>
     <row r="24" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="13">
         <f>VLOOKUP(G23,$C$27:$D$44,2,0)</f>
         <v>0</v>
@@ -3520,22 +3528,30 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AN1:AN3"/>
+    <mergeCell ref="AO1:AO3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F24"/>
@@ -3552,35 +3568,27 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="A4:A16"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="W1:W3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AN1:AN3"/>
-    <mergeCell ref="AO1:AO3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:AW1 AP2:AW2">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
@@ -3598,13 +3606,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DE8C2F-29B5-4F83-A5F3-D641690AD01F}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
@@ -3615,127 +3623,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76" t="s">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="58" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="43" t="s">
+      <c r="Z1" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AA1" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AB1" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AC1" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" s="43" t="s">
+      <c r="AD1" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AE1" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="43" t="s">
+      <c r="AG1" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="43" t="s">
+      <c r="AH1" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="AI1" s="43" t="s">
+      <c r="AI1" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="AJ1" s="43" t="s">
+      <c r="AJ1" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="AK1" s="43" t="s">
+      <c r="AK1" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="AL1" s="43" t="s">
+      <c r="AL1" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AM1" s="43" t="s">
+      <c r="AM1" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="AN1" s="43" t="s">
+      <c r="AN1" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="AO1" s="46" t="s">
+      <c r="AO1" s="69" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="69"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -3744,45 +3752,45 @@
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="47"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="70"/>
     </row>
     <row r="3" spans="1:41" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="5">
         <v>0</v>
       </c>
@@ -3795,55 +3803,55 @@
       <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="48"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="71"/>
     </row>
     <row r="4" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
@@ -3881,16 +3889,16 @@
       <c r="AO4" s="34"/>
     </row>
     <row r="5" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
@@ -3928,16 +3936,16 @@
       <c r="AO5" s="34"/>
     </row>
     <row r="6" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
@@ -3975,16 +3983,16 @@
       <c r="AO6" s="34"/>
     </row>
     <row r="7" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
@@ -4022,12 +4030,2605 @@
       <c r="AO7" s="34"/>
     </row>
     <row r="8" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="9" t="s">
         <v>114</v>
       </c>
+      <c r="C8" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+    </row>
+    <row r="9" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="73"/>
+      <c r="B9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+    </row>
+    <row r="10" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="73"/>
+      <c r="B10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+    </row>
+    <row r="11" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="73"/>
+      <c r="B11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+    </row>
+    <row r="12" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79"/>
+      <c r="B12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+    </row>
+    <row r="13" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+    </row>
+    <row r="14" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="73"/>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+    </row>
+    <row r="15" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="73"/>
+      <c r="B15" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+    </row>
+    <row r="16" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="79"/>
+      <c r="B16" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+    </row>
+    <row r="17" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="11">
+        <f>IF(13-SUM(G4:G16)&lt;=1,1,13-SUM(G4:G16))</f>
+        <v>13</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" ref="H17:AG17" si="0">IF(13-SUM(H4:H16)&lt;=1,1,13-SUM(H4:H16))</f>
+        <v>13</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="U17" s="11">
+        <f>IF(13-SUM(U4:U16)&lt;=1,1,13-SUM(U4:U16))</f>
+        <v>13</v>
+      </c>
+      <c r="V17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="W17" s="11">
+        <f>IF(13-SUM(W4:W16)&lt;=1,1,13-SUM(W4:W16))</f>
+        <v>13</v>
+      </c>
+      <c r="X17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Y17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AA17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AB17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AC17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AD17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AE17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AF17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AG17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AH17" s="11">
+        <f t="shared" ref="AH17:AO17" si="1">IF(13-SUM(AH4:AH16)&lt;=1,1,13-SUM(AH4:AH16))</f>
+        <v>13</v>
+      </c>
+      <c r="AI17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AJ17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AK17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AL17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AM17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AN17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AO17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="11">
+        <f>VLOOKUP(G17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" ref="H18:AG18" si="2">VLOOKUP(H17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="11">
+        <f>VLOOKUP(U17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="37">
+        <f>VLOOKUP(W17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="11">
+        <f t="shared" ref="AH18:AO18" si="3">VLOOKUP(AH17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:41" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="18">
+        <v>2</v>
+      </c>
+      <c r="D22" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="18">
+        <v>3</v>
+      </c>
+      <c r="D23" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="18">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="18">
+        <v>5</v>
+      </c>
+      <c r="D25" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="18">
+        <v>6</v>
+      </c>
+      <c r="D26" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="18">
+        <v>7</v>
+      </c>
+      <c r="D27" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="24">
+        <v>8</v>
+      </c>
+      <c r="D28" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="18">
+        <v>9</v>
+      </c>
+      <c r="D29" s="26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="18">
+        <v>10</v>
+      </c>
+      <c r="D30" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="18">
+        <v>11</v>
+      </c>
+      <c r="D31" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="18">
+        <v>12</v>
+      </c>
+      <c r="D32" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="18">
+        <v>13</v>
+      </c>
+      <c r="D33" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="31">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AN1:AN3"/>
+    <mergeCell ref="AO1:AO3"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G1:AO1">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13162C49-A9BD-4A02-81B8-72159398C4DA}">
+  <dimension ref="A1:AO29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="41" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG1" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH1" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI1" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ1" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK1" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL1" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM1" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN1" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO1" s="69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="65"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="70"/>
+    </row>
+    <row r="3" spans="1:41" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="66"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="71"/>
+    </row>
+    <row r="4" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+    </row>
+    <row r="5" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="73"/>
+      <c r="B5" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+    </row>
+    <row r="6" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="73"/>
+      <c r="B6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+    </row>
+    <row r="7" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="73"/>
+      <c r="B7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+    </row>
+    <row r="8" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="73"/>
+      <c r="B8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+    </row>
+    <row r="9" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="79"/>
+      <c r="B9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+    </row>
+    <row r="10" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+    </row>
+    <row r="11" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+    </row>
+    <row r="12" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+    </row>
+    <row r="13" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
+      <c r="B13" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+    </row>
+    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="11">
+        <f>IF(10-SUM(G4:G13)&lt;=1,1,10-SUM(G4:G13))</f>
+        <v>10</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" ref="H14:AK14" si="0">IF(10-SUM(H4:H13)&lt;=1,1,10-SUM(H4:H13))</f>
+        <v>10</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="X14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Y14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AA14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AC14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AD14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AE14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AF14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AG14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AH14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AI14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="11">
+        <f>IF(10-SUM(AJ4:AJ13)&lt;=1,1,10-SUM(AJ4:AJ13))</f>
+        <v>10</v>
+      </c>
+      <c r="AK14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AL14" s="11">
+        <f t="shared" ref="AL14:AO14" si="1">IF(10-SUM(AL4:AL13)&lt;=1,1,10-SUM(AL4:AL13))</f>
+        <v>10</v>
+      </c>
+      <c r="AM14" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AN14" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AO14" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="13">
+        <f t="shared" ref="G15:AK15" si="2">VLOOKUP(G14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="13">
+        <f t="shared" ref="AL15:AO15" si="3">VLOOKUP(AL14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2</v>
+      </c>
+      <c r="D19" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="18">
+        <v>3</v>
+      </c>
+      <c r="D20" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18">
+        <v>4</v>
+      </c>
+      <c r="D21" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="18">
+        <v>5</v>
+      </c>
+      <c r="D22" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="18">
+        <v>6</v>
+      </c>
+      <c r="D23" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="24">
+        <v>7</v>
+      </c>
+      <c r="D24" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="18">
+        <v>8</v>
+      </c>
+      <c r="D25" s="26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="18">
+        <v>9</v>
+      </c>
+      <c r="D26" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="18">
+        <v>10</v>
+      </c>
+      <c r="D27" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="31">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AN1:AN3"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="AO1:AO3"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G1:AO1">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4093D5-729C-41CB-8EBB-3C2E459757DA}">
+  <dimension ref="A1:AO35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="41" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG1" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH1" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI1" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ1" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK1" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL1" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM1" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN1" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO1" s="69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="73"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="65"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="70"/>
+    </row>
+    <row r="3" spans="1:41" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="79"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="66"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="71"/>
+    </row>
+    <row r="4" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+    </row>
+    <row r="5" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="73"/>
+      <c r="B5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+    </row>
+    <row r="6" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="73"/>
+      <c r="B6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+    </row>
+    <row r="7" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="73"/>
+      <c r="B7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+    </row>
+    <row r="8" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="73"/>
+      <c r="B8" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="C8" s="49" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -4068,13 +6669,13 @@
       <c r="AN8" s="34"/>
       <c r="AO8" s="34"/>
     </row>
-    <row r="9" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
+    <row r="9" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="73"/>
       <c r="B9" s="9" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
@@ -4115,17 +6716,17 @@
       <c r="AN9" s="34"/>
       <c r="AO9" s="34"/>
     </row>
-    <row r="10" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
-      <c r="B10" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
+    <row r="10" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="79"/>
+      <c r="B10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -4162,13 +6763,15 @@
       <c r="AN10" s="34"/>
       <c r="AO10" s="34"/>
     </row>
-    <row r="11" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="11" t="s">
-        <v>120</v>
+    <row r="11" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -4179,7 +6782,7 @@
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
+      <c r="M11" s="34"/>
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
       <c r="P11" s="34"/>
@@ -4209,17 +6812,17 @@
       <c r="AN11" s="34"/>
       <c r="AO11" s="34"/>
     </row>
-    <row r="12" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
+    <row r="12" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="83"/>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -4229,7 +6832,7 @@
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
       <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
+      <c r="P12" s="35"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
@@ -4256,19 +6859,17 @@
       <c r="AN12" s="34"/>
       <c r="AO12" s="34"/>
     </row>
-    <row r="13" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+    <row r="13" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="83"/>
+      <c r="B13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -4277,7 +6878,7 @@
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
+      <c r="O13" s="35"/>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
       <c r="R13" s="34"/>
@@ -4305,17 +6906,17 @@
       <c r="AN13" s="34"/>
       <c r="AO13" s="34"/>
     </row>
-    <row r="14" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
+    <row r="14" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="83"/>
       <c r="B14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
+        <v>39</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -4352,2610 +6953,17 @@
       <c r="AN14" s="34"/>
       <c r="AO14" s="34"/>
     </row>
-    <row r="15" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
-      <c r="B15" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-    </row>
-    <row r="16" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
-      <c r="B16" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-    </row>
-    <row r="17" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="11">
-        <f>IF(13-SUM(G4:G16)&lt;=1,1,13-SUM(G4:G16))</f>
-        <v>13</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" ref="H17:AG17" si="0">IF(13-SUM(H4:H16)&lt;=1,1,13-SUM(H4:H16))</f>
-        <v>13</v>
-      </c>
-      <c r="I17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="J17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="K17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="M17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="P17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="R17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="S17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="T17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="U17" s="11">
-        <f>IF(13-SUM(U4:U16)&lt;=1,1,13-SUM(U4:U16))</f>
-        <v>13</v>
-      </c>
-      <c r="V17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="W17" s="11">
-        <f>IF(13-SUM(W4:W16)&lt;=1,1,13-SUM(W4:W16))</f>
-        <v>13</v>
-      </c>
-      <c r="X17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Y17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Z17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AA17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AB17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AC17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AD17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AE17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AF17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AG17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AH17" s="11">
-        <f t="shared" ref="AH17:AO17" si="1">IF(13-SUM(AH4:AH16)&lt;=1,1,13-SUM(AH4:AH16))</f>
-        <v>13</v>
-      </c>
-      <c r="AI17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AJ17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AK17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AL17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AM17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AN17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AO17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="11">
-        <f>VLOOKUP(G17,$C$21:$D$33,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" ref="H18:AG18" si="2">VLOOKUP(H17,$C$21:$D$33,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="11">
-        <f>VLOOKUP(U17,$C$21:$D$33,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="37">
-        <f>VLOOKUP(W17,$C$21:$D$33,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="11">
-        <f t="shared" ref="AH18:AO18" si="3">VLOOKUP(AH17,$C$21:$D$33,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AM18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:41" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="18">
-        <v>1</v>
-      </c>
-      <c r="D21" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="18">
-        <v>2</v>
-      </c>
-      <c r="D22" s="22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="18">
-        <v>3</v>
-      </c>
-      <c r="D23" s="22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="18">
-        <v>4</v>
-      </c>
-      <c r="D24" s="22">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="18">
-        <v>5</v>
-      </c>
-      <c r="D25" s="22">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="18">
-        <v>6</v>
-      </c>
-      <c r="D26" s="22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="18">
-        <v>7</v>
-      </c>
-      <c r="D27" s="22">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="24">
-        <v>8</v>
-      </c>
-      <c r="D28" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="18">
-        <v>9</v>
-      </c>
-      <c r="D29" s="26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="18">
-        <v>10</v>
-      </c>
-      <c r="D30" s="26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="18">
-        <v>11</v>
-      </c>
-      <c r="D31" s="26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="18">
-        <v>12</v>
-      </c>
-      <c r="D32" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="18">
-        <v>13</v>
-      </c>
-      <c r="D33" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="31">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AN1:AN3"/>
-    <mergeCell ref="AO1:AO3"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A4:A12"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G1:AO1">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13162C49-A9BD-4A02-81B8-72159398C4DA}">
-  <dimension ref="A1:AO29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="41" width="3.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="T1" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="U1" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="W1" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="X1" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y1" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB1" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC1" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD1" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE1" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF1" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG1" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH1" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI1" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ1" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK1" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL1" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM1" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN1" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO1" s="46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="47"/>
-    </row>
-    <row r="3" spans="1:41" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="48"/>
-    </row>
-    <row r="4" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-    </row>
-    <row r="5" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
-      <c r="B5" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-    </row>
-    <row r="6" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-    </row>
-    <row r="7" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
-      <c r="B7" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
-    </row>
-    <row r="8" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
-      <c r="B8" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-    </row>
-    <row r="9" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-    </row>
-    <row r="10" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-    </row>
-    <row r="11" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="B11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-    </row>
-    <row r="12" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
-      <c r="B12" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-    </row>
-    <row r="13" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-    </row>
-    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="11">
-        <f>IF(10-SUM(G4:G13)&lt;=1,1,10-SUM(G4:G13))</f>
-        <v>10</v>
-      </c>
-      <c r="H14" s="11">
-        <f t="shared" ref="H14:AK14" si="0">IF(10-SUM(H4:H13)&lt;=1,1,10-SUM(H4:H13))</f>
-        <v>10</v>
-      </c>
-      <c r="I14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="S14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="W14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="X14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Y14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Z14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AA14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AB14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AC14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AD14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AE14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AF14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AG14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AH14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AI14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AJ14" s="11">
-        <f>IF(10-SUM(AJ4:AJ13)&lt;=1,1,10-SUM(AJ4:AJ13))</f>
-        <v>10</v>
-      </c>
-      <c r="AK14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AL14" s="11">
-        <f t="shared" ref="AL14:AO14" si="1">IF(10-SUM(AL4:AL13)&lt;=1,1,10-SUM(AL4:AL13))</f>
-        <v>10</v>
-      </c>
-      <c r="AM14" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AN14" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AO14" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="13">
-        <f t="shared" ref="G15:AK15" si="2">VLOOKUP(G14,$C$18:$D$27,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="13">
-        <f t="shared" ref="AL15:AO15" si="3">VLOOKUP(AL14,$C$18:$D$27,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="18">
-        <v>2</v>
-      </c>
-      <c r="D19" s="22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="18">
-        <v>3</v>
-      </c>
-      <c r="D20" s="22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="18">
-        <v>4</v>
-      </c>
-      <c r="D21" s="22">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="18">
-        <v>5</v>
-      </c>
-      <c r="D22" s="22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="18">
-        <v>6</v>
-      </c>
-      <c r="D23" s="22">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="24">
-        <v>7</v>
-      </c>
-      <c r="D24" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="18">
-        <v>8</v>
-      </c>
-      <c r="D25" s="26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="18">
-        <v>9</v>
-      </c>
-      <c r="D26" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="18">
-        <v>10</v>
-      </c>
-      <c r="D27" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="31">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="AO1:AO3"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AN1:AN3"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G1:AO1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4093D5-729C-41CB-8EBB-3C2E459757DA}">
-  <dimension ref="A1:AO35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="41" width="3.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="T1" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="U1" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="W1" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="X1" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y1" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB1" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC1" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD1" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE1" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF1" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG1" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH1" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI1" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ1" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK1" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL1" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM1" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN1" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO1" s="46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="47"/>
-    </row>
-    <row r="3" spans="1:41" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="48"/>
-    </row>
-    <row r="4" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-    </row>
-    <row r="5" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
-      <c r="B5" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-    </row>
-    <row r="6" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-    </row>
-    <row r="7" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
-      <c r="B7" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
-    </row>
-    <row r="8" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
-      <c r="B8" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-    </row>
-    <row r="9" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-    </row>
-    <row r="10" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
-      <c r="B10" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-    </row>
-    <row r="11" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-    </row>
-    <row r="12" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-    </row>
-    <row r="13" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-    </row>
-    <row r="14" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-    </row>
     <row r="15" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
@@ -6993,16 +7001,16 @@
       <c r="AO15" s="40"/>
     </row>
     <row r="16" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
@@ -7040,14 +7048,14 @@
       <c r="AO16" s="40"/>
     </row>
     <row r="17" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="11">
         <f>IF(13-SUM(G4:G16)&lt;=1,1,13-SUM(G4:G16))</f>
         <v>13</v>
@@ -7190,14 +7198,14 @@
       </c>
     </row>
     <row r="18" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="13">
         <f>VLOOKUP(G17,$C$21:$D$33,2,0)</f>
         <v>0</v>
@@ -7340,7 +7348,7 @@
       </c>
     </row>
     <row r="19" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>49</v>
       </c>
@@ -7506,29 +7514,22 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AN1:AN3"/>
+    <mergeCell ref="AO1:AO3"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="V1:V3"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="AH1:AH3"/>
     <mergeCell ref="AI1:AI3"/>
@@ -7545,22 +7546,29 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AN1:AN3"/>
-    <mergeCell ref="AO1:AO3"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:AO1">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/1des/autoavaliacao.xlsx
+++ b/1des/autoavaliacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DB1AAA-8A1E-4ACC-ADE8-F495AD5DFB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A7EB89-2162-40BB-B6AA-52C660411A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5EEDF07-EBC8-412C-AADD-B34EA720C566}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5EEDF07-EBC8-412C-AADD-B34EA720C566}"/>
   </bookViews>
   <sheets>
     <sheet name="FPOO" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1376,12 +1379,81 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1394,74 +1466,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1469,6 +1475,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1481,23 +1490,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1877,13 +1880,13 @@
   <dimension ref="A1:AS46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
@@ -1893,127 +1896,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="64" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="O1" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="55" t="s">
+      <c r="V1" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="55" t="s">
+      <c r="W1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="55" t="s">
+      <c r="X1" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="55" t="s">
+      <c r="Y1" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="55" t="s">
+      <c r="Z1" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="55" t="s">
+      <c r="AA1" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="55" t="s">
+      <c r="AB1" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="AC1" s="55" t="s">
+      <c r="AC1" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" s="55" t="s">
+      <c r="AD1" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" s="55" t="s">
+      <c r="AE1" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" s="55" t="s">
+      <c r="AF1" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="55" t="s">
+      <c r="AG1" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="55" t="s">
+      <c r="AH1" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="AI1" s="55" t="s">
+      <c r="AI1" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="AJ1" s="55" t="s">
+      <c r="AJ1" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="AK1" s="55" t="s">
+      <c r="AK1" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="AL1" s="55" t="s">
+      <c r="AL1" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="AM1" s="55" t="s">
+      <c r="AM1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="AN1" s="55" t="s">
+      <c r="AN1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="AO1" s="69" t="s">
+      <c r="AO1" s="46" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -2022,45 +2025,45 @@
       <c r="F2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="70"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="47"/>
     </row>
     <row r="3" spans="1:45" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="5">
         <v>0</v>
       </c>
@@ -2073,55 +2076,55 @@
       <c r="F3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="71"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="48"/>
     </row>
     <row r="4" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -2159,16 +2162,16 @@
       <c r="AO4" s="8"/>
     </row>
     <row r="5" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2206,16 +2209,16 @@
       <c r="AO5" s="8"/>
     </row>
     <row r="6" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -2253,16 +2256,16 @@
       <c r="AO6" s="8"/>
     </row>
     <row r="7" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2300,16 +2303,16 @@
       <c r="AO7" s="8"/>
     </row>
     <row r="8" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2347,16 +2350,16 @@
       <c r="AO8" s="8"/>
     </row>
     <row r="9" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2394,16 +2397,16 @@
       <c r="AO9" s="8"/>
     </row>
     <row r="10" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2441,16 +2444,16 @@
       <c r="AO10" s="8"/>
     </row>
     <row r="11" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2488,16 +2491,16 @@
       <c r="AO11" s="8"/>
     </row>
     <row r="12" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -2535,16 +2538,16 @@
       <c r="AO12" s="8"/>
     </row>
     <row r="13" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -2582,16 +2585,16 @@
       <c r="AO13" s="8"/>
     </row>
     <row r="14" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -2629,16 +2632,16 @@
       <c r="AO14" s="8"/>
     </row>
     <row r="15" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -2677,16 +2680,16 @@
       <c r="AS15" s="12"/>
     </row>
     <row r="16" spans="1:45" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -2724,18 +2727,18 @@
       <c r="AO16" s="8"/>
     </row>
     <row r="17" spans="1:41" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="61" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -2773,16 +2776,16 @@
       <c r="AO17" s="8"/>
     </row>
     <row r="18" spans="1:41" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -2820,16 +2823,16 @@
       <c r="AO18" s="8"/>
     </row>
     <row r="19" spans="1:41" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -2867,16 +2870,16 @@
       <c r="AO19" s="8"/>
     </row>
     <row r="20" spans="1:41" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -2914,16 +2917,16 @@
       <c r="AO20" s="8"/>
     </row>
     <row r="21" spans="1:41" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2961,16 +2964,16 @@
       <c r="AO21" s="8"/>
     </row>
     <row r="22" spans="1:41" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -3008,14 +3011,14 @@
       <c r="AO22" s="8"/>
     </row>
     <row r="23" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="11">
         <f>IF(18-SUM(G4:G22)&lt;=1,1,18-SUM(G4:G22))</f>
         <v>18</v>
@@ -3158,14 +3161,14 @@
       </c>
     </row>
     <row r="24" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="13">
         <f>VLOOKUP(G23,$C$27:$D$44,2,0)</f>
         <v>0</v>
@@ -3528,30 +3531,27 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AN1:AN3"/>
-    <mergeCell ref="AO1:AO3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F24"/>
@@ -3568,27 +3568,30 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="A4:A16"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AN1:AN3"/>
+    <mergeCell ref="AO1:AO3"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:AW1 AP2:AW2">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
@@ -3623,127 +3626,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="64" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="O1" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="55" t="s">
+      <c r="V1" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="55" t="s">
+      <c r="W1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="55" t="s">
+      <c r="X1" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="55" t="s">
+      <c r="Y1" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="55" t="s">
+      <c r="Z1" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="55" t="s">
+      <c r="AA1" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="55" t="s">
+      <c r="AB1" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="AC1" s="55" t="s">
+      <c r="AC1" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" s="55" t="s">
+      <c r="AD1" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" s="55" t="s">
+      <c r="AE1" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" s="55" t="s">
+      <c r="AF1" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="55" t="s">
+      <c r="AG1" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="55" t="s">
+      <c r="AH1" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="AI1" s="55" t="s">
+      <c r="AI1" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="AJ1" s="55" t="s">
+      <c r="AJ1" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="AK1" s="55" t="s">
+      <c r="AK1" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="AL1" s="55" t="s">
+      <c r="AL1" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="AM1" s="55" t="s">
+      <c r="AM1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="AN1" s="55" t="s">
+      <c r="AN1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="AO1" s="69" t="s">
+      <c r="AO1" s="46" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -3752,45 +3755,45 @@
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="70"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="47"/>
     </row>
     <row r="3" spans="1:41" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="5">
         <v>0</v>
       </c>
@@ -3803,55 +3806,55 @@
       <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="71"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="48"/>
     </row>
     <row r="4" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
@@ -3889,16 +3892,16 @@
       <c r="AO4" s="34"/>
     </row>
     <row r="5" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
@@ -3936,16 +3939,16 @@
       <c r="AO5" s="34"/>
     </row>
     <row r="6" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
@@ -3983,12 +3986,2605 @@
       <c r="AO6" s="34"/>
     </row>
     <row r="7" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="9" t="s">
         <v>112</v>
       </c>
+      <c r="C7" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+    </row>
+    <row r="8" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="74"/>
+      <c r="B8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+    </row>
+    <row r="9" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="74"/>
+      <c r="B9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+    </row>
+    <row r="10" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="74"/>
+      <c r="B10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+    </row>
+    <row r="11" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="74"/>
+      <c r="B11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+    </row>
+    <row r="12" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="75"/>
+      <c r="B12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+    </row>
+    <row r="13" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+    </row>
+    <row r="14" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="74"/>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+    </row>
+    <row r="15" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="74"/>
+      <c r="B15" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+    </row>
+    <row r="16" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="75"/>
+      <c r="B16" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+    </row>
+    <row r="17" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="11">
+        <f>IF(13-SUM(G4:G16)&lt;=1,1,13-SUM(G4:G16))</f>
+        <v>13</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" ref="H17:AG17" si="0">IF(13-SUM(H4:H16)&lt;=1,1,13-SUM(H4:H16))</f>
+        <v>13</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="U17" s="11">
+        <f>IF(13-SUM(U4:U16)&lt;=1,1,13-SUM(U4:U16))</f>
+        <v>13</v>
+      </c>
+      <c r="V17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="W17" s="11">
+        <f>IF(13-SUM(W4:W16)&lt;=1,1,13-SUM(W4:W16))</f>
+        <v>13</v>
+      </c>
+      <c r="X17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Y17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AA17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AB17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AC17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AD17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AE17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AF17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AG17" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AH17" s="11">
+        <f t="shared" ref="AH17:AO17" si="1">IF(13-SUM(AH4:AH16)&lt;=1,1,13-SUM(AH4:AH16))</f>
+        <v>13</v>
+      </c>
+      <c r="AI17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AJ17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AK17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AL17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AM17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AN17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AO17" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="11">
+        <f>VLOOKUP(G17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" ref="H18:AG18" si="2">VLOOKUP(H17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="11">
+        <f>VLOOKUP(U17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="37">
+        <f>VLOOKUP(W17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="11">
+        <f t="shared" ref="AH18:AO18" si="3">VLOOKUP(AH17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:41" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="18">
+        <v>2</v>
+      </c>
+      <c r="D22" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="18">
+        <v>3</v>
+      </c>
+      <c r="D23" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="18">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="18">
+        <v>5</v>
+      </c>
+      <c r="D25" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="18">
+        <v>6</v>
+      </c>
+      <c r="D26" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="18">
+        <v>7</v>
+      </c>
+      <c r="D27" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="24">
+        <v>8</v>
+      </c>
+      <c r="D28" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="18">
+        <v>9</v>
+      </c>
+      <c r="D29" s="26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="18">
+        <v>10</v>
+      </c>
+      <c r="D30" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="18">
+        <v>11</v>
+      </c>
+      <c r="D31" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="18">
+        <v>12</v>
+      </c>
+      <c r="D32" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="18">
+        <v>13</v>
+      </c>
+      <c r="D33" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="31">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AN1:AN3"/>
+    <mergeCell ref="AO1:AO3"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A4:A12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G1:AO1">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13162C49-A9BD-4A02-81B8-72159398C4DA}">
+  <dimension ref="A1:AO29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="41" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG1" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH1" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI1" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ1" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK1" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL1" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM1" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN1" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO1" s="46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="47"/>
+    </row>
+    <row r="3" spans="1:41" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="60"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="48"/>
+    </row>
+    <row r="4" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+    </row>
+    <row r="5" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="74"/>
+      <c r="B5" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+    </row>
+    <row r="6" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74"/>
+      <c r="B6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+    </row>
+    <row r="7" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="74"/>
+      <c r="B7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+    </row>
+    <row r="8" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="74"/>
+      <c r="B8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+    </row>
+    <row r="9" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="75"/>
+      <c r="B9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+    </row>
+    <row r="10" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+    </row>
+    <row r="11" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62"/>
+      <c r="B11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+    </row>
+    <row r="12" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="62"/>
+      <c r="B12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+    </row>
+    <row r="13" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+    </row>
+    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="11">
+        <f>IF(10-SUM(G4:G13)&lt;=1,1,10-SUM(G4:G13))</f>
+        <v>10</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" ref="H14:AK14" si="0">IF(10-SUM(H4:H13)&lt;=1,1,10-SUM(H4:H13))</f>
+        <v>10</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="X14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Y14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AA14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AC14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AD14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AE14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AF14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AG14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AH14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AI14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="11">
+        <f>IF(10-SUM(AJ4:AJ13)&lt;=1,1,10-SUM(AJ4:AJ13))</f>
+        <v>10</v>
+      </c>
+      <c r="AK14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AL14" s="11">
+        <f t="shared" ref="AL14:AO14" si="1">IF(10-SUM(AL4:AL13)&lt;=1,1,10-SUM(AL4:AL13))</f>
+        <v>10</v>
+      </c>
+      <c r="AM14" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AN14" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AO14" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="13">
+        <f t="shared" ref="G15:AK15" si="2">VLOOKUP(G14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="13">
+        <f t="shared" ref="AL15:AO15" si="3">VLOOKUP(AL14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2</v>
+      </c>
+      <c r="D19" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="18">
+        <v>3</v>
+      </c>
+      <c r="D20" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18">
+        <v>4</v>
+      </c>
+      <c r="D21" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="18">
+        <v>5</v>
+      </c>
+      <c r="D22" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="18">
+        <v>6</v>
+      </c>
+      <c r="D23" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="24">
+        <v>7</v>
+      </c>
+      <c r="D24" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="18">
+        <v>8</v>
+      </c>
+      <c r="D25" s="26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="18">
+        <v>9</v>
+      </c>
+      <c r="D26" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="18">
+        <v>10</v>
+      </c>
+      <c r="D27" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="31">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="AO1:AO3"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AN1:AN3"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G1:AO1">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4093D5-729C-41CB-8EBB-3C2E459757DA}">
+  <dimension ref="A1:AO35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="41" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG1" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH1" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI1" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ1" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK1" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL1" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM1" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN1" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO1" s="46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="74"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="47"/>
+    </row>
+    <row r="3" spans="1:41" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="75"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="60"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="48"/>
+    </row>
+    <row r="4" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+    </row>
+    <row r="5" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="74"/>
+      <c r="B5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+    </row>
+    <row r="6" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74"/>
+      <c r="B6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+    </row>
+    <row r="7" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="74"/>
+      <c r="B7" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="C7" s="49" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
@@ -4029,17 +6625,17 @@
       <c r="AN7" s="34"/>
       <c r="AO7" s="34"/>
     </row>
-    <row r="8" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
+    <row r="8" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="74"/>
       <c r="B8" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+        <v>156</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -4076,17 +6672,17 @@
       <c r="AN8" s="34"/>
       <c r="AO8" s="34"/>
     </row>
-    <row r="9" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
+    <row r="9" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="74"/>
       <c r="B9" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
+        <v>158</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
@@ -4123,13 +6719,13 @@
       <c r="AN9" s="34"/>
       <c r="AO9" s="34"/>
     </row>
-    <row r="10" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="11" t="s">
-        <v>118</v>
+    <row r="10" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="75"/>
+      <c r="B10" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
@@ -4170,24 +6766,26 @@
       <c r="AN10" s="34"/>
       <c r="AO10" s="34"/>
     </row>
-    <row r="11" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
-      <c r="B11" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+    <row r="11" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
+      <c r="M11" s="34"/>
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
       <c r="P11" s="34"/>
@@ -4217,17 +6815,17 @@
       <c r="AN11" s="34"/>
       <c r="AO11" s="34"/>
     </row>
-    <row r="12" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79"/>
-      <c r="B12" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+    <row r="12" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="82"/>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -4237,7 +6835,7 @@
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
       <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
+      <c r="P12" s="35"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
@@ -4264,19 +6862,17 @@
       <c r="AN12" s="34"/>
       <c r="AO12" s="34"/>
     </row>
-    <row r="13" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
+    <row r="13" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="82"/>
+      <c r="B13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -4285,7 +6881,7 @@
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
+      <c r="O13" s="35"/>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
       <c r="R13" s="34"/>
@@ -4313,17 +6909,17 @@
       <c r="AN13" s="34"/>
       <c r="AO13" s="34"/>
     </row>
-    <row r="14" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
+    <row r="14" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="82"/>
       <c r="B14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
+        <v>39</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -4360,2610 +6956,17 @@
       <c r="AN14" s="34"/>
       <c r="AO14" s="34"/>
     </row>
-    <row r="15" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
-      <c r="B15" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-    </row>
-    <row r="16" spans="1:41" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="B16" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-    </row>
-    <row r="17" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="11">
-        <f>IF(13-SUM(G4:G16)&lt;=1,1,13-SUM(G4:G16))</f>
-        <v>13</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" ref="H17:AG17" si="0">IF(13-SUM(H4:H16)&lt;=1,1,13-SUM(H4:H16))</f>
-        <v>13</v>
-      </c>
-      <c r="I17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="J17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="K17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="L17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="M17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="P17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="R17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="S17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="T17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="U17" s="11">
-        <f>IF(13-SUM(U4:U16)&lt;=1,1,13-SUM(U4:U16))</f>
-        <v>13</v>
-      </c>
-      <c r="V17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="W17" s="11">
-        <f>IF(13-SUM(W4:W16)&lt;=1,1,13-SUM(W4:W16))</f>
-        <v>13</v>
-      </c>
-      <c r="X17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Y17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Z17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AA17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AB17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AC17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AD17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AE17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AF17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AG17" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AH17" s="11">
-        <f t="shared" ref="AH17:AO17" si="1">IF(13-SUM(AH4:AH16)&lt;=1,1,13-SUM(AH4:AH16))</f>
-        <v>13</v>
-      </c>
-      <c r="AI17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AJ17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AK17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AL17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AM17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AN17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AO17" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="11">
-        <f>VLOOKUP(G17,$C$21:$D$33,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" ref="H18:AG18" si="2">VLOOKUP(H17,$C$21:$D$33,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="11">
-        <f>VLOOKUP(U17,$C$21:$D$33,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="37">
-        <f>VLOOKUP(W17,$C$21:$D$33,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="11">
-        <f t="shared" ref="AH18:AO18" si="3">VLOOKUP(AH17,$C$21:$D$33,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AM18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:41" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="18">
-        <v>1</v>
-      </c>
-      <c r="D21" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="18">
-        <v>2</v>
-      </c>
-      <c r="D22" s="22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="18">
-        <v>3</v>
-      </c>
-      <c r="D23" s="22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="18">
-        <v>4</v>
-      </c>
-      <c r="D24" s="22">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="18">
-        <v>5</v>
-      </c>
-      <c r="D25" s="22">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="18">
-        <v>6</v>
-      </c>
-      <c r="D26" s="22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="18">
-        <v>7</v>
-      </c>
-      <c r="D27" s="22">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="24">
-        <v>8</v>
-      </c>
-      <c r="D28" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="18">
-        <v>9</v>
-      </c>
-      <c r="D29" s="26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="18">
-        <v>10</v>
-      </c>
-      <c r="D30" s="26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="18">
-        <v>11</v>
-      </c>
-      <c r="D31" s="26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="18">
-        <v>12</v>
-      </c>
-      <c r="D32" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="18">
-        <v>13</v>
-      </c>
-      <c r="D33" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="31">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AN1:AN3"/>
-    <mergeCell ref="AO1:AO3"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G1:AO1">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13162C49-A9BD-4A02-81B8-72159398C4DA}">
-  <dimension ref="A1:AO29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="41" width="3.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="T1" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="U1" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="W1" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="X1" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y1" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB1" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC1" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD1" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF1" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG1" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH1" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI1" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ1" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK1" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL1" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM1" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN1" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO1" s="69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="70"/>
-    </row>
-    <row r="3" spans="1:41" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="71"/>
-    </row>
-    <row r="4" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-    </row>
-    <row r="5" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-    </row>
-    <row r="6" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
-      <c r="B6" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-    </row>
-    <row r="7" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
-      <c r="B7" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
-    </row>
-    <row r="8" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
-      <c r="B8" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-    </row>
-    <row r="9" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
-      <c r="B9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-    </row>
-    <row r="10" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-    </row>
-    <row r="11" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-    </row>
-    <row r="12" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-    </row>
-    <row r="13" spans="1:41" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-    </row>
-    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="11">
-        <f>IF(10-SUM(G4:G13)&lt;=1,1,10-SUM(G4:G13))</f>
-        <v>10</v>
-      </c>
-      <c r="H14" s="11">
-        <f t="shared" ref="H14:AK14" si="0">IF(10-SUM(H4:H13)&lt;=1,1,10-SUM(H4:H13))</f>
-        <v>10</v>
-      </c>
-      <c r="I14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="S14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="W14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="X14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Y14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Z14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AA14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AB14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AC14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AD14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AE14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AF14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AG14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AH14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AI14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AJ14" s="11">
-        <f>IF(10-SUM(AJ4:AJ13)&lt;=1,1,10-SUM(AJ4:AJ13))</f>
-        <v>10</v>
-      </c>
-      <c r="AK14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AL14" s="11">
-        <f t="shared" ref="AL14:AO14" si="1">IF(10-SUM(AL4:AL13)&lt;=1,1,10-SUM(AL4:AL13))</f>
-        <v>10</v>
-      </c>
-      <c r="AM14" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AN14" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AO14" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="13">
-        <f t="shared" ref="G15:AK15" si="2">VLOOKUP(G14,$C$18:$D$27,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="13">
-        <f t="shared" ref="AL15:AO15" si="3">VLOOKUP(AL14,$C$18:$D$27,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="18">
-        <v>2</v>
-      </c>
-      <c r="D19" s="22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="18">
-        <v>3</v>
-      </c>
-      <c r="D20" s="22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="18">
-        <v>4</v>
-      </c>
-      <c r="D21" s="22">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="18">
-        <v>5</v>
-      </c>
-      <c r="D22" s="22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="18">
-        <v>6</v>
-      </c>
-      <c r="D23" s="22">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="24">
-        <v>7</v>
-      </c>
-      <c r="D24" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="18">
-        <v>8</v>
-      </c>
-      <c r="D25" s="26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="18">
-        <v>9</v>
-      </c>
-      <c r="D26" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="18">
-        <v>10</v>
-      </c>
-      <c r="D27" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="31">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AN1:AN3"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="AO1:AO3"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G1:AO1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4093D5-729C-41CB-8EBB-3C2E459757DA}">
-  <dimension ref="A1:AO35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="41" width="3.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="T1" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="U1" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="W1" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="X1" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y1" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB1" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC1" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD1" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF1" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG1" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH1" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI1" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ1" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK1" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL1" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM1" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN1" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO1" s="69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="70"/>
-    </row>
-    <row r="3" spans="1:41" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="71"/>
-    </row>
-    <row r="4" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-    </row>
-    <row r="5" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-    </row>
-    <row r="6" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
-      <c r="B6" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-    </row>
-    <row r="7" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
-      <c r="B7" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
-    </row>
-    <row r="8" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
-      <c r="B8" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-    </row>
-    <row r="9" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
-      <c r="B9" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-    </row>
-    <row r="10" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
-      <c r="B10" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-    </row>
-    <row r="11" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-    </row>
-    <row r="12" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-    </row>
-    <row r="13" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-    </row>
-    <row r="14" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-    </row>
     <row r="15" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
@@ -7001,16 +7004,16 @@
       <c r="AO15" s="40"/>
     </row>
     <row r="16" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
@@ -7048,14 +7051,14 @@
       <c r="AO16" s="40"/>
     </row>
     <row r="17" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="11">
         <f>IF(13-SUM(G4:G16)&lt;=1,1,13-SUM(G4:G16))</f>
         <v>13</v>
@@ -7198,14 +7201,14 @@
       </c>
     </row>
     <row r="18" spans="1:41" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="13">
         <f>VLOOKUP(G17,$C$21:$D$33,2,0)</f>
         <v>0</v>
@@ -7514,6 +7517,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="AL1:AL3"/>
     <mergeCell ref="AM1:AM3"/>
     <mergeCell ref="AN1:AN3"/>
@@ -7530,45 +7572,6 @@
     <mergeCell ref="AF1:AF3"/>
     <mergeCell ref="AG1:AG3"/>
     <mergeCell ref="V1:V3"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:AO1">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
